--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220414_134752.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220414_134752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>SSK</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>WM</t>
@@ -2752,6 +2755,12 @@
       <c r="F60" t="s">
         <v>208</v>
       </c>
+      <c r="G60" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
@@ -2825,7 +2834,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H63" t="s">
         <v>243</v>
@@ -3085,7 +3094,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H73" t="s">
         <v>243</v>
@@ -3137,7 +3146,7 @@
         <v>218</v>
       </c>
       <c r="G75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H75" t="s">
         <v>243</v>
@@ -3162,6 +3171,12 @@
       <c r="F76" t="s">
         <v>219</v>
       </c>
+      <c r="G76" t="s">
+        <v>262</v>
+      </c>
+      <c r="H76" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
@@ -3183,7 +3198,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
         <v>243</v>
@@ -3209,7 +3224,7 @@
         <v>220</v>
       </c>
       <c r="G78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H78" t="s">
         <v>243</v>
@@ -3339,7 +3354,7 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H83" t="s">
         <v>243</v>
@@ -3365,7 +3380,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H84" t="s">
         <v>243</v>
@@ -3468,6 +3483,12 @@
       <c r="F88" t="s">
         <v>96</v>
       </c>
+      <c r="G88" t="s">
+        <v>245</v>
+      </c>
+      <c r="H88" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
@@ -3515,7 +3536,7 @@
         <v>228</v>
       </c>
       <c r="G90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H90" t="s">
         <v>243</v>
@@ -3541,7 +3562,7 @@
         <v>229</v>
       </c>
       <c r="G91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H91" t="s">
         <v>243</v>
@@ -3671,7 +3692,7 @@
         <v>231</v>
       </c>
       <c r="G96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H96" t="s">
         <v>243</v>
@@ -3723,7 +3744,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H98" t="s">
         <v>243</v>
@@ -3749,7 +3770,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H99" t="s">
         <v>243</v>
@@ -3775,7 +3796,7 @@
         <v>233</v>
       </c>
       <c r="G100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H100" t="s">
         <v>243</v>
@@ -3801,7 +3822,7 @@
         <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H101" t="s">
         <v>243</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220414_134752.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220414_134752.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-14</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220414_134752.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220414_134752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>플렉스엠</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -2132,7 +2129,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H36" t="s">
         <v>243</v>
@@ -2236,7 +2233,7 @@
         <v>196</v>
       </c>
       <c r="G40" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
         <v>243</v>
@@ -2262,7 +2259,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H41" t="s">
         <v>243</v>
@@ -2340,7 +2337,7 @@
         <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H44" t="s">
         <v>243</v>
@@ -2366,7 +2363,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H45" t="s">
         <v>243</v>
@@ -2418,7 +2415,7 @@
         <v>199</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H47" t="s">
         <v>243</v>
@@ -2444,7 +2441,7 @@
         <v>200</v>
       </c>
       <c r="G48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H48" t="s">
         <v>243</v>
@@ -2600,10 +2597,10 @@
         <v>203</v>
       </c>
       <c r="G54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2652,7 +2649,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H56" t="s">
         <v>243</v>
@@ -2704,7 +2701,7 @@
         <v>206</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H58" t="s">
         <v>243</v>
@@ -2756,7 +2753,7 @@
         <v>208</v>
       </c>
       <c r="G60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H60" t="s">
         <v>243</v>
@@ -2834,7 +2831,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H63" t="s">
         <v>243</v>
@@ -2912,10 +2909,10 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3068,7 +3065,7 @@
         <v>195</v>
       </c>
       <c r="G72" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
         <v>243</v>
@@ -3094,7 +3091,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H73" t="s">
         <v>243</v>
@@ -3146,7 +3143,7 @@
         <v>218</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
         <v>243</v>
@@ -3172,7 +3169,7 @@
         <v>219</v>
       </c>
       <c r="G76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H76" t="s">
         <v>243</v>
@@ -3198,7 +3195,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
         <v>243</v>
@@ -3224,7 +3221,7 @@
         <v>220</v>
       </c>
       <c r="G78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H78" t="s">
         <v>243</v>
@@ -3328,10 +3325,10 @@
         <v>223</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3354,7 +3351,7 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H83" t="s">
         <v>243</v>
@@ -3380,7 +3377,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H84" t="s">
         <v>243</v>
@@ -3536,7 +3533,7 @@
         <v>228</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" t="s">
         <v>243</v>
@@ -3562,7 +3559,7 @@
         <v>229</v>
       </c>
       <c r="G91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H91" t="s">
         <v>243</v>
@@ -3614,7 +3611,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H93" t="s">
         <v>243</v>
@@ -3692,7 +3689,7 @@
         <v>231</v>
       </c>
       <c r="G96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H96" t="s">
         <v>243</v>
@@ -3744,7 +3741,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H98" t="s">
         <v>243</v>
@@ -3770,7 +3767,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H99" t="s">
         <v>243</v>
@@ -3796,7 +3793,7 @@
         <v>233</v>
       </c>
       <c r="G100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H100" t="s">
         <v>243</v>
@@ -3822,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H101" t="s">
         <v>243</v>
